--- a/配方vs外观.xlsx
+++ b/配方vs外观.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Class\3 AW\跨媒体可视化\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Data-Visual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A99D8FC-9186-4F4B-8482-AAD2F51131FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E078C15-5CB5-42FB-BE30-6779EE25C420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D94628C5-0585-436F-BC3A-E20D51D98B09}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{D94628C5-0585-436F-BC3A-E20D51D98B09}"/>
   </bookViews>
   <sheets>
     <sheet name="外观调查" sheetId="2" r:id="rId1"/>
     <sheet name="直径、8天长距" sheetId="1" r:id="rId2"/>
     <sheet name="平均产量" sheetId="3" r:id="rId3"/>
+    <sheet name="配方成分" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="84">
   <si>
     <t>配方</t>
   </si>
@@ -224,6 +225,456 @@
     <t>.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>杂木屑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>竹屑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>棉籽壳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>麸皮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%</t>
+    </r>
+  </si>
+  <si>
+    <t>石膏粉</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>菌棒数</t>
+  </si>
+  <si>
+    <r>
+      <t>80%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>袋）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>袋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>40kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>1%(2kg)</t>
+  </si>
+  <si>
+    <t>120kg</t>
+  </si>
+  <si>
+    <r>
+      <t>60%(4.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>袋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20%(1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>袋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>40%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>袋）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>13.3%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>袋）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>56.7%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>袋）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>40Kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>150Kg</t>
+  </si>
+  <si>
+    <t>需要原料</t>
+  </si>
+  <si>
+    <r>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>袋</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>袋</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>袋</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>袋</t>
+    </r>
+  </si>
+  <si>
+    <t>14Kg</t>
+  </si>
+  <si>
+    <r>
+      <t>1400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>棒</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -232,7 +683,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +719,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -289,7 +753,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -312,6 +776,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -325,7 +841,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -365,6 +881,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5363,7 +5900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE7E032-72A0-4DA5-91DB-218D5AC48798}">
   <dimension ref="A1:CF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
@@ -9722,4 +10259,219 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48800C61-4816-443A-AB33-D13FB79B1FD8}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="25">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25">
+        <v>20</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="25">
+        <v>20</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25">
+        <v>20</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25">
+        <v>0</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25">
+        <v>20</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="25">
+        <v>20</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>